--- a/Versienummering.xlsx
+++ b/Versienummering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DSO\Geonovum\GitHub\xml_omgevingsplan_gemeentestad_1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416226C-F569-48AB-B8BF-2BA17E421197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F372CAD-F650-43D0-9024-9BFA30188487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6810" yWindow="5700" windowWidth="11520" windowHeight="8325" xr2:uid="{FF3A4FA4-BB2C-467B-9243-1B3BA5086937}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>initieel</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>/join/id/proces/gm0297/2020/mutatie_opdracht_3c</t>
+  </si>
+  <si>
+    <t>/join/id/proces/gm0297/2020/verwijder_artikel_GIO</t>
+  </si>
+  <si>
+    <t>/join/id/proces/gm0297/2020/mutatie_opdracht_4a</t>
+  </si>
+  <si>
+    <t>/join/id/proces/gm0297/2020/mutatie_opdracht_4b</t>
+  </si>
+  <si>
+    <t>/join/id/proces/gm0297/2020/mutatie_opdracht_4c</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -521,6 +529,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,648 +855,656 @@
       <pane xSplit="1" ySplit="1" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:17" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28">
         <v>3520</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="27" t="str">
+      <c r="I2" s="25" t="str">
         <f>_xlfn.TEXTJOIN("",0,"/akn/nl/act/gm0297/",YEAR(L2),"/reg456/nld@",H2)</f>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@1</v>
       </c>
-      <c r="J2" s="31" t="str">
+      <c r="J2" s="29" t="str">
         <f>_xlfn.TEXTJOIN("",0,"/akn/nl/bill/gm0297/",YEAR(L2),"/",F2,"/nld@",YEAR(L2))</f>
         <v>/akn/nl/bill/gm0297/2019/3520/nld@2019</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="30">
         <f t="shared" ref="L2:L10" si="0">N2-14</f>
         <v>43802</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="30">
         <f t="shared" ref="M2:M10" si="1">N2-12</f>
         <v>43804</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="30">
         <f t="shared" ref="N2:N10" si="2">P2-28</f>
         <v>43816</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32">
+      <c r="O2" s="31"/>
+      <c r="P2" s="30">
         <f>P3-42</f>
         <v>43844</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+    <row r="3" spans="1:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="35" t="str">
+      <c r="I3" s="33" t="str">
         <f t="shared" ref="I3" si="3">_xlfn.TEXTJOIN("",0,"/akn/nl/act/gm0297/2020/reg789/nld@",H3)</f>
         <v>/akn/nl/act/gm0297/2020/reg789/nld@2</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="29" t="str">
         <f t="shared" ref="J3:J11" si="4">_xlfn.TEXTJOIN("",0,"/akn/nl/bill/gm0297/",YEAR(L3),"/",F3,"/nld@",YEAR(L3))</f>
         <v>/akn/nl/bill/gm0297/2020/KS020/nld@2020</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="36">
         <f t="shared" si="0"/>
         <v>43844</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="36">
         <f t="shared" si="1"/>
         <v>43846</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="36">
         <f t="shared" si="2"/>
         <v>43858</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="38">
+      <c r="O3" s="37"/>
+      <c r="P3" s="36">
         <f>P4-42</f>
         <v>43886</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="30">
+      <c r="E4" s="38"/>
+      <c r="F4" s="28">
         <v>4508</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="27" t="str">
+      <c r="I4" s="25" t="str">
         <f>_xlfn.TEXTJOIN("",0,"/akn/nl/act/gm0297/",YEAR($L$2),"/reg456/nld@",H4)</f>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@2</v>
       </c>
-      <c r="J4" s="31" t="str">
+      <c r="J4" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/4508/nld@2020</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="30">
         <f t="shared" si="0"/>
         <v>43886</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="30">
         <f t="shared" si="1"/>
         <v>43888</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="30">
         <f t="shared" si="2"/>
         <v>43900</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="32">
+      <c r="O4" s="31"/>
+      <c r="P4" s="30">
         <f t="shared" ref="P4:P9" si="5">P5-42</f>
         <v>43928</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27" t="str">
+      <c r="I5" s="25" t="str">
         <f t="shared" ref="I5:I11" si="6">_xlfn.TEXTJOIN("",0,"/akn/nl/act/gm0297/",YEAR($L$2),"/reg456/nld@",H5)</f>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@3</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/besluit4527/nld@2020</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>43928</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="30">
         <f t="shared" si="1"/>
         <v>43930</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="30">
         <f t="shared" si="2"/>
         <v>43942</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32">
+      <c r="O5" s="31"/>
+      <c r="P5" s="30">
         <f t="shared" si="5"/>
         <v>43970</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@4</v>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/besluit4543/nld@2020</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>43970</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <f t="shared" si="1"/>
         <v>43972</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="30">
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="32">
+      <c r="O6" s="31"/>
+      <c r="P6" s="30">
         <f t="shared" si="5"/>
         <v>44012</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@5</v>
       </c>
-      <c r="J7" s="31" t="str">
+      <c r="J7" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/besluit6045/nld@2020</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="30">
         <f t="shared" si="0"/>
         <v>44012</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="30">
         <f t="shared" si="1"/>
         <v>44014</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="30">
         <f t="shared" si="2"/>
         <v>44026</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="32">
+      <c r="O7" s="31"/>
+      <c r="P7" s="30">
         <f t="shared" si="5"/>
         <v>44054</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@6</v>
       </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/4520/nld@2020</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32">
+      <c r="K8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="30">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="30">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="30">
         <f t="shared" si="2"/>
         <v>44068</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32">
+      <c r="O8" s="31"/>
+      <c r="P8" s="30">
         <f t="shared" si="5"/>
         <v>44096</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@7</v>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/4530/nld@2020</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32">
+      <c r="K9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="30">
         <f t="shared" si="0"/>
         <v>44096</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <f t="shared" si="1"/>
         <v>44098</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="30">
         <f t="shared" si="2"/>
         <v>44110</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="32">
+      <c r="O9" s="31"/>
+      <c r="P9" s="30">
         <f t="shared" si="5"/>
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@8</v>
       </c>
-      <c r="J10" s="31" t="str">
+      <c r="J10" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/4540/nld@2020</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32">
+      <c r="K10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <f t="shared" si="1"/>
         <v>44140</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="30">
         <f t="shared" si="2"/>
         <v>44152</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="32">
+      <c r="O10" s="31"/>
+      <c r="P10" s="30">
         <f>P11-42</f>
         <v>44180</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="25" t="str">
         <f t="shared" si="6"/>
         <v>/akn/nl/act/gm0297/2019/reg456/nld@9</v>
       </c>
-      <c r="J11" s="31" t="str">
+      <c r="J11" s="29" t="str">
         <f t="shared" si="4"/>
         <v>/akn/nl/bill/gm0297/2020/4550/nld@2020</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32">
+      <c r="K11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="30">
         <f>N11-14</f>
         <v>44180</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="30">
         <f>N11-12</f>
         <v>44182</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="30">
         <f>P11-28</f>
         <v>44194</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="32">
+      <c r="O11" s="31"/>
+      <c r="P11" s="30">
         <v>44222</v>
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="P12" s="42"/>
+      <c r="D12" s="24"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="26"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D14" s="26"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D15" s="26"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D16" s="26"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q12" xr:uid="{DF054162-CB4D-4B77-AEBC-D3A93DF3F42E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="3b"/>
-        <filter val="3c"/>
+        <filter val="4b"/>
+        <filter val="4c"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1521,15 +1541,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1543,8 +1563,8 @@
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4710,9 +4730,9 @@
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="HG5" s="10"/>
       <c r="IJ5" s="9"/>
       <c r="IK5" s="9"/>
@@ -4761,9 +4781,9 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
